--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AL)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AL).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AL)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AL).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | AC 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,21 +530,105 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al
-Ala
-Alangium
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ala</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alangium
 Alangium platanifolium - photo
 Alangium platanifolium genuinum - photo
-Alangium platanifolium macrophyllum -  photo
-Alb
-Albizia - fam. Fabacées ou Mimosacées (arbre)
+Alangium platanifolium macrophyllum -  photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alb</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Albizia - fam. Fabacées ou Mimosacées (arbre)
 Albizia adinocephala (zone néotropicale)
 Albizia julibrissin - Arbre de soie ou Acacia de Constantinople ou « Albizia » - photo
 Albizia julibrissin rosea - photo
 Albizia surinamensis
-Albizia nemu
-Alc
-Alcea - fam. Malvacées
+Albizia nemu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alc</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alcea - fam. Malvacées
 Alcea apterocarpa
 Alcea biennis ou Alcea pallida
 Alcea ficifolia
@@ -621,24 +717,214 @@
 Alchemilla undulata
 Alchemilla versipila
 Alchemilla vetteri
-Alchemilla vulgaris - Alchémille vulgaire - photo
-Ald
-Aldina
+Alchemilla vulgaris - Alchémille vulgaire - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ald</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aldina
 Aldrovanda - fam. Droséracées
-Aldrovanda vesiculosa - Aldrovandie à vessies
-Ale
-Alexa
-Alh
-Alhagi
-Alhagi maurorum
-Ali
-Alisma - fam. Alismatacées
+Aldrovanda vesiculosa - Aldrovandie à vessies</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alexa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alh</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alhagi
+Alhagi maurorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alisma - fam. Alismatacées
 Alisma gramineum
 Alisma lenceolatum
 Alisma plantago-aquatica - Plantain d'eau
-Alisma walhenbergii
-Alk
-Alkanna - fam. Boraginacées
+Alisma walhenbergii</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alk</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alkanna - fam. Boraginacées
 Alkanna calliensis
 Alkanna corcyrensis
 Alkanna graeca
@@ -655,9 +941,47 @@
 Alkanna scardica
 Alkanna sieberi
 Alkanna stribrnyi
-Alkanna tinctoria - Alkanna des Teinturiers
-All
-Allamanda - fam. Apocynacées
+Alkanna tinctoria - Alkanna des Teinturiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Allamanda - fam. Apocynacées
 Allamanda cathartica - Allamanda
 Alliaria - fam. Brassicacées
 Alliaria petiolata Alliaire officinale
@@ -717,9 +1041,47 @@
 Allium victorialis - Ail victoriale - photo
 Allium vineale
 Allogoptera - fam. Arécacées
-Allogoptera arenaria
-Aln
-Alniphyllum
+Allogoptera arenaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Aln</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alniphyllum
 Alnus - fam. Bétulacées (arbre)
 Alnus alnobetula ou Alnus serrulata - Aulne blanc
 Alnus cordata - Aulne d'Italie
@@ -746,9 +1108,47 @@
 Alnus spaethii -
 Alnus viridis - Aulne - photo
 Alnus viridis crispa - Aulne crispé
-Alnus viridis sinuata - Aulne de Sitka
-Alo
-Alocasia - fam. Aracées
+Alnus viridis sinuata - Aulne de Sitka</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alocasia - fam. Aracées
 Alocasia calidora (zone afrotropicale) - Oreille d'éléphant
 Alocasia chelsoni
 Alocasia macrorrhiza (zone océannienne) - Oreille d'éléphant
@@ -778,16 +1178,92 @@
 Alopecurus geniculatus - Vulpin
 Alopecurus pratensis -  Vulpin des prés
 Aloysia
-Aloysia triphylla
-Als
-Alsophila - fam. Cyathéacées (fougère)
+Aloysia triphylla</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Als</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Alsophila - fam. Cyathéacées (fougère)
 Alsophila cooperi ou Cyathea cooperi ou Sphaeropteris cooperi - Fougère arborescente
 Alstroemeria - fam. Amaryllidacées
 Alstroemeria aurantiaca - photo
 Alstroemeria ligtu - Alstromère du Pérou, Lys du Pérou, Lys des Incas
-Alstroemeria versicolor - Alstromère du Chili
-Alt
-Alternanthera
+Alstroemeria versicolor - Alstromère du Chili</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Alternanthera
 Alternanthera amoena
 Alternanthera amoena Amabilia
 Alternanthera bettzichiana
@@ -798,9 +1274,47 @@
 Althæa longiflora - Guimauve à fleurs longues
 Althæa officinalis - Guimauve officinale - photo1, photo2
 Althenia - fam. Zannichelliacées
-Althenia filiformis -  Althénia filiforme
-Aly
-Alyssum - fam. Brassicacées (plante vivace)
+Althenia filiformis -  Althénia filiforme</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AL)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Aly</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alyssum - fam. Brassicacées (plante vivace)
 Alyssum alpestre
 Alyssum alyssoides
 Alyssum arenarium
